--- a/Design/Pricing.xlsx
+++ b/Design/Pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bsd405-my.sharepoint.com/personal/s-vikramadityan_bsd405_org/Documents/Tektite/TektiteR/EV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nv/Library/Application Support/STM32CubeIDE/workspace_1.15.0/Tektite-R_EV/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{355650BB-0AA2-E14E-AC49-163D93A781F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28D3C3E8-BCE7-3541-B729-90A9B49BE73C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6D58F-A6C4-3247-850A-7A21A09A3B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{3323777E-1DF2-4348-B326-362B318325C3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{3323777E-1DF2-4348-B326-362B318325C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Item</t>
   </si>
@@ -80,9 +80,6 @@
     <t>ESC (35A XT60)</t>
   </si>
   <si>
-    <t>https://www.aliexpress.us/item/3256806557891003.html</t>
-  </si>
-  <si>
     <t>Motor pulley</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Alternate: https://www.aliexpress.us/item/3256807041239789.html</t>
   </si>
   <si>
-    <t>Alternate: https://www.aliexpress.us/item/3256805329452853.html</t>
-  </si>
-  <si>
     <t>Alternate: https://www.aliexpress.us/item/3256803888885845.html</t>
   </si>
   <si>
@@ -221,10 +215,10 @@
     <t>https://www.aliexpress.us/item/2251832666419248.html</t>
   </si>
   <si>
-    <t> $              5.71 </t>
-  </si>
-  <si>
-    <t> $              0.11 </t>
+    <t>https://www.aliexpress.us/item/3256805329452853.html</t>
+  </si>
+  <si>
+    <t>Alternate: https://www.aliexpress.us/item/3256806557891003.html</t>
   </si>
 </sst>
 </file>
@@ -294,7 +288,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -319,6 +313,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -337,10 +332,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DC6279-EE2D-524A-AEA0-F780B55F0CE3}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="165" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,12 +692,12 @@
       </c>
       <c r="H1" s="6">
         <f>SUM(E:E)</f>
-        <v>103.91333004089999</v>
+        <v>104.02753004089999</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
@@ -729,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5">
         <f>16.62*1.101</f>
@@ -743,7 +734,7 @@
         <v>18.29862</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -767,10 +758,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5">
         <v>74.8</v>
@@ -786,10 +777,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
         <f>0.8*1.101</f>
@@ -805,10 +796,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5">
         <f>3.13*1.101</f>
@@ -846,10 +837,10 @@
     </row>
     <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <f>1.98*1.101</f>
@@ -863,15 +854,15 @@
         <v>2.17998</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5">
         <f>3.54*1.101</f>
@@ -885,15 +876,15 @@
         <v>7.7950799999999996</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <f>3.46*1.101</f>
@@ -907,15 +898,15 @@
         <v>3.8094600000000001</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="C12" s="5">
         <f>4.69*1.101</f>
@@ -930,15 +921,15 @@
         <v>3.098214</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C13" s="5">
         <f>1.101*5.02</f>
@@ -954,10 +945,10 @@
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5">
         <f>2.75*1.101</f>
@@ -972,15 +963,15 @@
         <v>0.60555000000000003</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5">
         <f>5.99*1.101</f>
@@ -995,15 +986,15 @@
         <v>1.1211483000000002</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5">
         <f>8.69*1.101</f>
@@ -1018,33 +1009,34 @@
         <v>0.19135379999999999</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="C17" s="14">
+        <v>5.71</v>
       </c>
       <c r="D17" s="12">
         <v>0.02</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>62</v>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1142</v>
       </c>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5">
         <f>8.09*1.01</f>
@@ -1059,15 +1051,15 @@
         <v>0.32683600000000002</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C19" s="5">
         <f>11.98*1.101</f>
@@ -1082,15 +1074,15 @@
         <v>2.1983299999999999</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C20" s="5">
         <f>7.99*1.101</f>
@@ -1104,15 +1096,15 @@
         <v>0</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="C21" s="5">
         <f>206.29-6</f>
@@ -1127,15 +1119,15 @@
         <v>20.029</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
